--- a/biology/Zoologie/Hottentotta_salei/Hottentotta_salei.xlsx
+++ b/biology/Zoologie/Hottentotta_salei/Hottentotta_salei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta salei est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Oman, au Yémen et aux Émirats arabes unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Oman, au Yémen et aux Émirats arabes unis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure de 65 à 80 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure de 65 à 80 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthotus jayakari salei par Vachon en 1980. Elle suit son espèce dans le genre Hottentotta en 1994[2]. Elle est élevée au rang d'espèce par Kovařík en 2007[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthotus jayakari salei par Vachon en 1980. Elle suit son espèce dans le genre Hottentotta en 1994. Elle est élevée au rang d'espèce par Kovařík en 2007.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Benjamin Sale[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Benjamin Sale.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Vachon, 1980 : « Scorpions du Dhofar. » Journal of the Oman Studies, vol. 2, p. 251–263.</t>
         </is>
